--- a/Final results.xlsx
+++ b/Final results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tamucs-my.sharepoint.com/personal/zohoor902123_tamu_edu/Documents/Zohoor/TAMU Desktop/Capstone Data/Final Capstone/Final Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/689bc56b5f2b2608/Documents/GitHub/EnplanementForecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{434C9A2B-1715-4095-AFD9-C1BEF9BE0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0046344C-BC49-4865-876A-A1DB1760374E}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{434C9A2B-1715-4095-AFD9-C1BEF9BE0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31235840-E907-49C3-9327-9A2746504BC9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B4D2996-F949-48CD-A7F8-D7732041C73A}"/>
+    <workbookView xWindow="1272" yWindow="156" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{8B4D2996-F949-48CD-A7F8-D7732041C73A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
   <si>
     <t>Original data(With covid)- Based on MAPE</t>
   </si>
@@ -138,13 +139,22 @@
   <si>
     <t>With Covid</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -285,25 +295,10 @@
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,12 +327,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -345,7 +337,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2501,10 +2511,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2804,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A335F927-0F8E-43C8-8EB5-899A35FFBA08}">
   <dimension ref="B3:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,69 +2836,69 @@
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="2" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="2" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="29"/>
+      <c r="S4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="2" t="s">
+      <c r="T4" s="29"/>
+      <c r="U4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="4"/>
+      <c r="V4" s="29"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
@@ -2953,13 +2959,13 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>39.69</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>84452</v>
       </c>
       <c r="F6" s="1">
@@ -3015,7 +3021,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1">
@@ -3036,10 +3042,10 @@
       <c r="I7" s="1">
         <v>0.7</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="13">
         <v>0.17</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="13">
         <v>0.54</v>
       </c>
       <c r="L7" s="1">
@@ -3069,15 +3075,15 @@
       <c r="T7" s="1">
         <v>0.08</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="13">
         <v>0.03</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="13">
         <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1">
@@ -3086,10 +3092,10 @@
       <c r="E8" s="1">
         <v>0.63</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>0.26</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <v>0.62</v>
       </c>
       <c r="H8" s="1">
@@ -3125,10 +3131,10 @@
       <c r="R8" s="1">
         <v>0.2</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="13">
         <v>0.04</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U8" s="1">
@@ -3142,16 +3148,16 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="14">
         <v>1.51</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>0.6</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <v>1.36</v>
       </c>
       <c r="H9" s="1">
@@ -3175,16 +3181,16 @@
       <c r="N9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="13">
         <v>0.04</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="13">
         <v>0.05</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="14">
         <v>0.09</v>
       </c>
       <c r="S9" s="1">
@@ -3193,93 +3199,93 @@
       <c r="T9" s="1">
         <v>0.1</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="13">
         <v>0.03</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="13">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="14" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="19" t="s">
         <v>26</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -3302,7 +3308,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>44470</v>
       </c>
       <c r="C13" s="1">
@@ -3329,37 +3335,37 @@
       <c r="J13" s="1">
         <v>1337885.2745602131</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="23">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="18">
         <v>44470</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="19">
         <v>27153</v>
       </c>
-      <c r="P13" s="24"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="1">
         <v>498237</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="21">
         <v>603699.9007461454</v>
       </c>
       <c r="S13" s="1">
         <v>285498</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="21">
         <v>445178.37591858627</v>
       </c>
       <c r="U13" s="1">
         <v>1375815</v>
       </c>
-      <c r="V13" s="26">
+      <c r="V13" s="21">
         <v>1453439.645070184</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>44501</v>
       </c>
       <c r="C14" s="1">
@@ -3386,37 +3392,37 @@
       <c r="J14" s="1">
         <v>1329907.4305460451</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="23">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="18">
         <v>44501</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="19">
         <v>34242</v>
       </c>
-      <c r="P14" s="24"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="1">
         <v>495800</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="21">
         <v>596629.61383823433</v>
       </c>
       <c r="S14" s="1">
         <v>336156</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="21">
         <v>462857.83058041608</v>
       </c>
       <c r="U14" s="1">
         <v>1356136</v>
       </c>
-      <c r="V14" s="26">
+      <c r="V14" s="21">
         <v>1423743.0779442689</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>44531</v>
       </c>
       <c r="C15" s="1">
@@ -3443,37 +3449,37 @@
       <c r="J15" s="1">
         <v>1338709.1355047231</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="23">
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="18">
         <v>44531</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="19">
         <v>39101</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="1">
         <v>477752</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="21">
         <v>605282.91715058265</v>
       </c>
       <c r="S15" s="1">
         <v>417561</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="21">
         <v>530891.92155088647</v>
       </c>
       <c r="U15" s="1">
         <v>1331893</v>
       </c>
-      <c r="V15" s="26">
+      <c r="V15" s="21">
         <v>1467656.2370649891</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>44562</v>
       </c>
       <c r="C16" s="1">
@@ -3500,601 +3506,601 @@
       <c r="J16" s="1">
         <v>1356287.7717885971</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="23">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="18">
         <v>44562</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="19">
         <v>29084</v>
       </c>
-      <c r="P16" s="24"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="1">
         <v>387446</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="21">
         <v>559945.42396666587</v>
       </c>
       <c r="S16" s="1">
         <v>287998</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="21">
         <v>487080.31488150411</v>
       </c>
       <c r="U16" s="1">
         <v>1036051</v>
       </c>
-      <c r="V16" s="26">
+      <c r="V16" s="21">
         <v>1386604.3856294779</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <f>ABS(SUM(C13:C16)-SUM(D13:D16))/SUM(C13:C16)</f>
         <v>7.01705170953279E-2</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27">
         <f>ABS(SUM(E13:E16)-SUM(F13:F16))/SUM(E13:E16)</f>
         <v>3.3213873988527036E-2</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27">
         <f>ABS(SUM(G13:G16)-SUM(H13:H16))/SUM(G13:G16)</f>
         <v>3.4144322333118761E-3</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28">
+      <c r="H17" s="27"/>
+      <c r="I17" s="27">
         <f>ABS(SUM(I13:I16)-SUM(J13:J16))/SUM(I13:I16)</f>
         <v>5.1549024519049531E-2</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="28">
+      <c r="J17" s="27"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="27">
         <f>ABS(SUM(Q13:Q16)-SUM(R13:R16))/SUM(Q13:Q16)</f>
         <v>0.27232859520266567</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27">
         <f>ABS(SUM(S13:S16)-SUM(T13:T16))/SUM(S13:S16)</f>
         <v>0.45116755406358505</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28">
+      <c r="T17" s="27"/>
+      <c r="U17" s="27">
         <f>ABS(SUM(U13:U16)-SUM(V13:V16))/SUM(U13:U16)</f>
         <v>0.12383555851814983</v>
       </c>
-      <c r="V17" s="28"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="12">
         <f>1-C17</f>
         <v>0.92982948290467204</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <f>1-E17</f>
         <v>0.96678612601147296</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <f>1-G17</f>
         <v>0.99658556776668816</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
         <f>1-I17</f>
         <v>0.94845097548095048</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
       <c r="N18" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="Q18" s="17">
+      <c r="O18" s="12"/>
+      <c r="Q18" s="12">
         <f>1-Q17</f>
         <v>0.72767140479733428</v>
       </c>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17">
+      <c r="R18" s="12"/>
+      <c r="S18" s="12">
         <f>1-S17</f>
         <v>0.54883244593641489</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17">
+      <c r="T18" s="12"/>
+      <c r="U18" s="12">
         <f>1-U17</f>
         <v>0.87616444148185013</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="26">
         <v>0.92982948290467204</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="26">
         <v>0.96678612601147296</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="26">
         <v>0.99658556776668816</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="26">
         <v>0.94845097548095048</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="32">
+      <c r="C23" s="12"/>
+      <c r="D23" s="26">
         <v>0.72767140479733428</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="26">
         <v>0.54883244593641489</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="26">
         <v>0.87616444148185013</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="U39" s="3" t="s">
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="U39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="4"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="29"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="K40" s="9"/>
-      <c r="L40" s="2" t="s">
+      <c r="K40" s="4"/>
+      <c r="L40" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="9" t="s">
+      <c r="M40" s="29"/>
+      <c r="N40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="2" t="s">
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="W40" s="4"/>
-      <c r="X40" s="9" t="s">
+      <c r="W40" s="29"/>
+      <c r="X40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" s="9" t="s">
+      <c r="Y40" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M41" s="9" t="s">
+      <c r="M41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="13" t="s">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9" t="s">
+      <c r="U41" s="4"/>
+      <c r="V41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W41" s="9" t="s">
+      <c r="W41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X41" s="9" t="s">
+      <c r="X41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y41" s="9" t="s">
+      <c r="Y41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Z41" s="1"/>
@@ -4110,10 +4116,10 @@
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
@@ -4122,136 +4128,136 @@
         <v>15</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="K42" s="15">
+      <c r="K42" s="10">
         <v>44470</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="4">
         <v>27153</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="4">
         <v>26792.7497495756</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="11">
         <v>30255.081009791691</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="4">
         <v>29218.240000000002</v>
       </c>
-      <c r="P42" s="9" t="s">
+      <c r="P42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="11">
         <f>ABS(SUM($L$42:$L$45)-SUM(M42:M45))/SUM($L$42:$L$45)</f>
         <v>7.01705170953279E-2</v>
       </c>
-      <c r="R42" s="16">
+      <c r="R42" s="11">
         <f>ABS(SUM($L$42:$L$45)-SUM(N42:N45))/SUM($L$42:$L$45)</f>
         <v>9.4334296573626353E-2</v>
       </c>
-      <c r="S42" s="16">
+      <c r="S42" s="11">
         <f>ABS(SUM($L$42:$L$45)-SUM(O42:O45))/SUM($L$42:$L$45)</f>
         <v>2.3783816947059781E-2</v>
       </c>
-      <c r="T42" s="29"/>
-      <c r="U42" s="15">
+      <c r="T42" s="23"/>
+      <c r="U42" s="10">
         <v>44470</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="4">
         <v>285498</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="4">
         <v>301421.57950964931</v>
       </c>
-      <c r="X42" s="16">
+      <c r="X42" s="11">
         <v>429518.45221370261</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Y42" s="4">
         <v>263642.48</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AA42" s="26">
+      <c r="AA42" s="21">
         <f>ABS(SUM($V$42:$V$45)-SUM(W42:W45))/SUM($V$42:$V$45)</f>
         <v>4.856817166763603E-2</v>
       </c>
-      <c r="AB42" s="26">
+      <c r="AB42" s="21">
         <f t="shared" ref="AB42:AC42" si="0">ABS(SUM($V$42:$V$45)-SUM(X42:X45))/SUM($V$42:$V$45)</f>
         <v>0.41553707662273393</v>
       </c>
-      <c r="AC42" s="26">
+      <c r="AC42" s="21">
         <f t="shared" si="0"/>
         <v>9.3725001186697271E-2</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="32"/>
+      <c r="E43" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="29"/>
+      <c r="G43" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="K43" s="15">
+      <c r="H43" s="32"/>
+      <c r="K43" s="10">
         <v>44501</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="4">
         <v>34242</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="4">
         <v>30824.5004757766</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="11">
         <v>37237.249231449903</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="4">
         <v>34061.137000000002</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="P43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="11">
         <f>1-Q42</f>
         <v>0.92982948290467204</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R43" s="11">
         <f>1-R42</f>
         <v>0.90566570342637365</v>
       </c>
-      <c r="S43" s="16">
+      <c r="S43" s="11">
         <f t="shared" ref="S43" si="1">1-S42</f>
         <v>0.97621618305294022</v>
       </c>
-      <c r="U43" s="15">
+      <c r="U43" s="10">
         <v>44501</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V43" s="4">
         <v>336156</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W43" s="4">
         <v>330448.68368484161</v>
       </c>
-      <c r="X43" s="16">
+      <c r="X43" s="11">
         <v>455789.20540538389</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Y43" s="4">
         <v>269516.99</v>
       </c>
-      <c r="AA43" s="31">
+      <c r="AA43" s="25">
         <f>1-AA42</f>
         <v>0.95143182833236395</v>
       </c>
-      <c r="AB43" s="31">
+      <c r="AB43" s="25">
         <f t="shared" ref="AB43:AC43" si="2">1-AB42</f>
         <v>0.58446292337726602</v>
       </c>
-      <c r="AC43" s="31">
+      <c r="AC43" s="25">
         <f t="shared" si="2"/>
         <v>0.90627499881330276</v>
       </c>
@@ -4276,37 +4282,37 @@
       <c r="H44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="10">
         <v>44531</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="4">
         <v>39101</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="4">
         <v>34801.524150222198</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="11">
         <v>40028.828508802319</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="4">
         <v>37975.120000000003</v>
       </c>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="U44" s="15">
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="U44" s="10">
         <v>44531</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="4">
         <v>417561</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W44" s="4">
         <v>419332.21881415253</v>
       </c>
-      <c r="X44" s="16">
+      <c r="X44" s="11">
         <v>536259.0774714374</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Y44" s="4">
         <v>365483.83</v>
       </c>
     </row>
@@ -4332,37 +4338,37 @@
       <c r="H45" s="1">
         <v>14763.23</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="10">
         <v>44562</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="4">
         <v>29084</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="4">
         <v>28068.530019213002</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="11">
         <v>34282.67939996659</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45" s="4">
         <v>31407.41</v>
       </c>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="U45" s="15">
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="U45" s="10">
         <v>44562</v>
       </c>
-      <c r="V45" s="9">
+      <c r="V45" s="4">
         <v>287998</v>
       </c>
-      <c r="W45" s="9">
+      <c r="W45" s="4">
         <v>340470.82681487477</v>
       </c>
-      <c r="X45" s="16">
+      <c r="X45" s="11">
         <v>457152.47498516447</v>
       </c>
-      <c r="Y45" s="9">
+      <c r="Y45" s="4">
         <v>304176.65999999997</v>
       </c>
     </row>
@@ -4411,23 +4417,23 @@
       <c r="H47" s="1">
         <v>89292.55</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="U47" s="2" t="s">
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="U47" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="4"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="29"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
@@ -4451,69 +4457,69 @@
       <c r="H48" s="1">
         <v>237168.58</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="2" t="s">
+      <c r="K48" s="4"/>
+      <c r="L48" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="9" t="s">
+      <c r="M48" s="29"/>
+      <c r="N48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O48" s="9" t="s">
+      <c r="O48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="2" t="s">
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="W48" s="4"/>
-      <c r="X48" s="9" t="s">
+      <c r="W48" s="29"/>
+      <c r="X48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y48" s="9" t="s">
+      <c r="Y48" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K49" s="9"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="N49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="O49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="P49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="Q49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="R49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9" t="s">
+      <c r="U49" s="4"/>
+      <c r="V49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W49" s="9" t="s">
+      <c r="W49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X49" s="9" t="s">
+      <c r="X49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y49" s="9" t="s">
+      <c r="Y49" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Z49" s="1"/>
@@ -4528,191 +4534,191 @@
       </c>
     </row>
     <row r="50" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K50" s="15">
+      <c r="K50" s="10">
         <v>44470</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="4">
         <v>498237</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="4">
         <v>484997.67411761172</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="4">
         <v>599215.07888456713</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="4">
         <v>467725.34</v>
       </c>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="16">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="11">
         <f>ABS(SUM($L$50:$L$53)-SUM(M50:M53))/SUM($L$50:$L$53)</f>
         <v>2.9995545938340345E-2</v>
       </c>
-      <c r="R50" s="16">
+      <c r="R50" s="11">
         <f>ABS(SUM($L$50:$L$53)-SUM(N50:N53))/SUM($L$50:$L$53)</f>
         <v>0.26625559753162803</v>
       </c>
-      <c r="S50" s="16">
+      <c r="S50" s="11">
         <f t="shared" ref="S50" si="3">ABS(SUM($L$50:$L$53)-SUM(O50:O53))/SUM($L$50:$L$53)</f>
         <v>2.6503212342711196E-3</v>
       </c>
-      <c r="U50" s="15">
+      <c r="U50" s="10">
         <v>44470</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="4">
         <v>1375815</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W50" s="4">
         <v>1347792.8482458659</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="4">
         <v>1453439.645070184</v>
       </c>
-      <c r="Y50" s="9">
+      <c r="Y50" s="4">
         <v>1373395</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA50" s="26">
+      <c r="AA50" s="21">
         <f>ABS(SUM($V$50:$V$53)-SUM(W50:W53))/SUM($V$50:$V$52)</f>
         <v>3.6687375443356547E-2</v>
       </c>
-      <c r="AB50" s="26">
+      <c r="AB50" s="21">
         <f>ABS(SUM($V$50:$V$53)-SUM(X50:X53))/SUM($V$50:$V$52)</f>
         <v>0.15540664102975402</v>
       </c>
-      <c r="AC50" s="26">
+      <c r="AC50" s="21">
         <f>ABS(SUM($V$50:$V$53)-SUM(Y50:Y53))/SUM($V$50:$V$52)</f>
         <v>6.1603742663350267E-2</v>
       </c>
     </row>
     <row r="51" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K51" s="15">
+      <c r="K51" s="10">
         <v>44501</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="4">
         <v>495800</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="4">
         <v>481278.56167621509</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="4">
         <v>595229.08946405596</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="4">
         <v>473061</v>
       </c>
-      <c r="P51" s="27" t="s">
+      <c r="P51" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q51" s="30">
+      <c r="Q51" s="24">
         <f>1-Q50</f>
         <v>0.97000445406165969</v>
       </c>
-      <c r="R51" s="30">
+      <c r="R51" s="24">
         <f t="shared" ref="R51:S51" si="4">1-R50</f>
         <v>0.73374440246837191</v>
       </c>
-      <c r="S51" s="30">
+      <c r="S51" s="24">
         <f t="shared" si="4"/>
         <v>0.99734967876572889</v>
       </c>
-      <c r="U51" s="15">
+      <c r="U51" s="10">
         <v>44501</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="4">
         <v>1356136</v>
       </c>
-      <c r="W51" s="9">
+      <c r="W51" s="4">
         <v>1298344.2332897149</v>
       </c>
-      <c r="X51" s="9">
+      <c r="X51" s="4">
         <v>1423743.0779442689</v>
       </c>
-      <c r="Y51" s="9">
+      <c r="Y51" s="4">
         <v>1327087</v>
       </c>
-      <c r="AA51" s="31">
+      <c r="AA51" s="25">
         <f>1-AA50</f>
         <v>0.96331262455664346</v>
       </c>
-      <c r="AB51" s="31">
+      <c r="AB51" s="25">
         <f t="shared" ref="AB51:AC51" si="5">1-AB50</f>
         <v>0.84459335897024601</v>
       </c>
-      <c r="AC51" s="31">
+      <c r="AC51" s="25">
         <f t="shared" si="5"/>
         <v>0.93839625733664978</v>
       </c>
     </row>
     <row r="52" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K52" s="15">
+      <c r="K52" s="10">
         <v>44531</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="4">
         <v>477752</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="4">
         <v>498553.31775992498</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="4">
         <v>604716.47009834182</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52" s="4">
         <v>480187.96</v>
       </c>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="U52" s="15">
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="U52" s="10">
         <v>44531</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="4">
         <v>1331893</v>
       </c>
-      <c r="W52" s="9">
+      <c r="W52" s="4">
         <v>1356420.024272931</v>
       </c>
-      <c r="X52" s="9">
+      <c r="X52" s="4">
         <v>1467656.2370649891</v>
       </c>
-      <c r="Y52" s="9">
+      <c r="Y52" s="4">
         <v>1347502</v>
       </c>
     </row>
     <row r="53" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K53" s="15">
+      <c r="K53" s="10">
         <v>44562</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="4">
         <v>387446</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="4">
         <v>450174.21529891831</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="4">
         <v>555106.08742975164</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53" s="4">
         <v>443188.27</v>
       </c>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="U53" s="15">
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="U53" s="10">
         <v>44562</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V53" s="4">
         <v>1036051</v>
       </c>
-      <c r="W53" s="9">
+      <c r="W53" s="4">
         <v>1246429.66476272</v>
       </c>
-      <c r="X53" s="9">
+      <c r="X53" s="4">
         <v>1386604.3856294779</v>
       </c>
-      <c r="Y53" s="9">
+      <c r="Y53" s="4">
         <v>1302259</v>
       </c>
     </row>
@@ -4732,36 +4738,36 @@
       </c>
     </row>
     <row r="58" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="26">
+      <c r="M58" s="21">
         <v>0.92982948290467204</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N58" s="21">
         <v>0.97000445406165969</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O58" s="21">
         <v>0.95143182833236395</v>
       </c>
-      <c r="P58" s="26">
+      <c r="P58" s="21">
         <v>0.96331262455664346</v>
       </c>
     </row>
     <row r="59" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="L59" s="13" t="s">
+      <c r="L59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="21">
         <v>0.90566570342637365</v>
       </c>
-      <c r="N59" s="26">
+      <c r="N59" s="21">
         <v>0.73374440246837191</v>
       </c>
-      <c r="O59" s="26">
+      <c r="O59" s="21">
         <v>0.58446292337726602</v>
       </c>
-      <c r="P59" s="26">
+      <c r="P59" s="21">
         <v>0.84459335897024601</v>
       </c>
     </row>
@@ -4769,42 +4775,21 @@
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M60" s="21">
         <v>0.97621618305294022</v>
       </c>
-      <c r="N60" s="25">
+      <c r="N60" s="20">
         <v>0.99734967876572889</v>
       </c>
-      <c r="O60" s="26">
+      <c r="O60" s="21">
         <v>0.90627499881330276</v>
       </c>
-      <c r="P60" s="26">
+      <c r="P60" s="21">
         <v>0.93839625733664978</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U39:Y39"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="L40:M40"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="D4:E4"/>
@@ -4815,8 +4800,125 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U39:Y39"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C49E6C-70AE-4206-A7B9-6800E0440848}">
+  <dimension ref="B3:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>